--- a/classification/droptc/sentence/neo-bert/freeze/99511865/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/99511865/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5006241202354431</v>
+        <v>0.7038841247558594</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.767918586730957</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8140735030174255</v>
+        <v>0.4999518394470215</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7279775738716125</v>
+        <v>0.7525542378425598</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9210220575332642</v>
+        <v>0.9990127086639404</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5130898952484131</v>
+        <v>0.9975500702857971</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7843281030654907</v>
+        <v>0.9926435351371765</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8830071091651917</v>
+        <v>0.9818683266639709</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8162103891372681</v>
+        <v>0.9926435351371765</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6237344145774841</v>
+        <v>0.985679566860199</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5908768773078918</v>
+        <v>0.9962053894996643</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7503018975257874</v>
+        <v>0.9943819642066956</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9539129137992859</v>
+        <v>0.9823216199874878</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6828716993331909</v>
+        <v>0.592678427696228</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9274808764457703</v>
+        <v>0.9132253527641296</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9842573404312134</v>
+        <v>0.9267821907997131</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8834378123283386</v>
+        <v>0.6207852959632874</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9022634029388428</v>
+        <v>0.9918466806411743</v>
       </c>
     </row>
     <row r="20">
@@ -987,14 +987,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.490281879901886</v>
+        <v>0.8984763026237488</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5101485252380371</v>
+        <v>0.9971681237220764</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4555393755435944</v>
+        <v>0.9707177877426147</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7930705547332764</v>
+        <v>0.9923923015594482</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8572715520858765</v>
+        <v>0.9962990880012512</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.936147153377533</v>
+        <v>0.6536117196083069</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5130898952484131</v>
+        <v>0.5793699026107788</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6870519518852234</v>
+        <v>0.9973945617675781</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9585220217704773</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7654240727424622</v>
+        <v>0.9909394979476929</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9663084745407104</v>
+        <v>0.9766075015068054</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9342233538627625</v>
+        <v>0.9770161509513855</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9359052777290344</v>
+        <v>0.6610512733459473</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8261156678199768</v>
+        <v>0.9527733325958252</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5344382524490356</v>
+        <v>0.9919835925102234</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4827963709831238</v>
+        <v>0.9981696605682373</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3494340181350708</v>
+        <v>0.995341420173645</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9160411953926086</v>
+        <v>0.9712892770767212</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9145678281784058</v>
+        <v>0.9967749714851379</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.766198992729187</v>
+        <v>0.9569534659385681</v>
       </c>
     </row>
     <row r="40">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8247215151786804</v>
+        <v>0.376786470413208</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4892884492874146</v>
+        <v>0.9740985035896301</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7654240727424622</v>
+        <v>0.9511056542396545</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6176474094390869</v>
+        <v>0.9966714382171631</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4468671381473541</v>
+        <v>0.5441599488258362</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8446269035339355</v>
+        <v>0.9776411652565002</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3836484253406525</v>
+        <v>0.9097617268562317</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8720157146453857</v>
+        <v>0.8287661075592041</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.825969398021698</v>
+        <v>0.9952645301818848</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.90114426612854</v>
+        <v>0.9977434873580933</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4163087606430054</v>
+        <v>0.9990642666816711</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9228335022926331</v>
+        <v>0.4548892378807068</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5574247241020203</v>
+        <v>0.7876702547073364</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7424013614654541</v>
+        <v>0.9990642666816711</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5332276225090027</v>
+        <v>0.8639174103736877</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.775890052318573</v>
+        <v>0.9993988275527954</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8417637944221497</v>
+        <v>0.9993909597396851</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8687813878059387</v>
+        <v>0.9901418089866638</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5198920965194702</v>
+        <v>0.9791731834411621</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.927630603313446</v>
+        <v>0.9928521513938904</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7724902033805847</v>
+        <v>0.9664821624755859</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.9785205125808716</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4544410407543182</v>
+        <v>0.9950072765350342</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9444969296455383</v>
+        <v>0.9181020855903625</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7616655826568604</v>
+        <v>0.8452165126800537</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7503203749656677</v>
+        <v>0.9977383613586426</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8214786648750305</v>
+        <v>0.9977383613586426</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5742484927177429</v>
+        <v>0.8633917570114136</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9778182506561279</v>
+        <v>0.9977383613586426</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8014200329780579</v>
+        <v>0.9325371384620667</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8744045495986938</v>
+        <v>0.9535382986068726</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8169214129447937</v>
+        <v>0.9809625148773193</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4323599636554718</v>
+        <v>0.9982147216796875</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7930705547332764</v>
+        <v>0.9890846610069275</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.623210072517395</v>
+        <v>0.762207567691803</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8214786648750305</v>
+        <v>0.8449868559837341</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.9890846610069275</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.9513434767723083</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9033200740814209</v>
+        <v>0.9890846610069275</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4630430340766907</v>
+        <v>0.999462902545929</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6874355673789978</v>
+        <v>0.9852771162986755</v>
       </c>
     </row>
     <row r="81">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.335931807756424</v>
+        <v>0.8467831611633301</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9423640370368958</v>
+        <v>0.9852771162986755</v>
       </c>
     </row>
     <row r="83">
@@ -2751,14 +2751,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9152063131332397</v>
+        <v>0.4114586412906647</v>
       </c>
     </row>
     <row r="84">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7773737907409668</v>
+        <v>0.4114586412906647</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8214786648750305</v>
+        <v>0.9999736547470093</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3746611773967743</v>
+        <v>0.9978348612785339</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.90114426612854</v>
+        <v>0.8837512135505676</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6438104510307312</v>
+        <v>0.9917157292366028</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4726219773292542</v>
+        <v>0.9189526438713074</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9304827451705933</v>
+        <v>0.9966579675674438</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4357496201992035</v>
+        <v>0.996357262134552</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4630430340766907</v>
+        <v>0.995424211025238</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8131556510925293</v>
+        <v>0.9953416585922241</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5544512867927551</v>
+        <v>0.9953867793083191</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7316960096359253</v>
+        <v>0.9955083131790161</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7436665296554565</v>
+        <v>0.593610942363739</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4780818521976471</v>
+        <v>0.9203525185585022</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.9990523457527161</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5103949904441833</v>
+        <v>0.707827091217041</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6140329241752625</v>
+        <v>0.9932231903076172</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7724831104278564</v>
+        <v>0.9332842230796814</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9160944223403931</v>
+        <v>0.6387344598770142</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.6789977550506592</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8464414477348328</v>
+        <v>0.8918030261993408</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9407830834388733</v>
+        <v>0.9951210618019104</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4562539160251617</v>
+        <v>0.9239924550056458</v>
       </c>
     </row>
     <row r="107">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5264115333557129</v>
+        <v>0.9213399887084961</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.757928192615509</v>
+        <v>0.9706535339355469</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6260160803794861</v>
+        <v>0.923068642616272</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7868513464927673</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6572187542915344</v>
+        <v>0.9389138221740723</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4025363624095917</v>
+        <v>0.9307478666305542</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9250285029411316</v>
+        <v>0.9920395612716675</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.981508195400238</v>
+        <v>0.9691454172134399</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8162103891372681</v>
+        <v>0.9014146327972412</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2807088792324066</v>
+        <v>0.9684135317802429</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.4970134496688843</v>
+        <v>0.9973303079605103</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9581568837165833</v>
+        <v>0.9388052821159363</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8743335604667664</v>
+        <v>0.4814227819442749</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9655411243438721</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4075103998184204</v>
+        <v>0.9845098853111267</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4633968472480774</v>
+        <v>0.9986237287521362</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8894339203834534</v>
+        <v>0.9845098853111267</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7039161324501038</v>
+        <v>0.9986237287521362</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8954253792762756</v>
+        <v>0.9845098853111267</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7213397622108459</v>
+        <v>0.9999125003814697</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6111626029014587</v>
+        <v>0.6430287957191467</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7313030958175659</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8766458034515381</v>
+        <v>0.3800791203975677</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4770361483097076</v>
+        <v>0.5715199112892151</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9126564860343933</v>
+        <v>0.9997171759605408</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3445590734481812</v>
+        <v>0.7071563601493835</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.865157425403595</v>
+        <v>0.9854539632797241</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7654240727424622</v>
+        <v>0.8732163906097412</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6612103581428528</v>
+        <v>0.860789954662323</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9419198036193848</v>
+        <v>0.9313779473304749</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8834378123283386</v>
+        <v>0.9919376969337463</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3659838736057281</v>
+        <v>0.8526210188865662</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8293864727020264</v>
+        <v>0.9972707629203796</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.7439666986465454</v>
+        <v>0.990675151348114</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8334493637084961</v>
+        <v>0.9715262055397034</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8738803267478943</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6343588829040527</v>
+        <v>0.6481913328170776</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8726896643638611</v>
+        <v>0.9981131553649902</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.57527095079422</v>
+        <v>0.6481913328170776</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.438115268945694</v>
+        <v>0.9927070736885071</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7058159112930298</v>
+        <v>0.9325371384620667</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4817714393138885</v>
+        <v>0.9623998403549194</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5695599913597107</v>
+        <v>0.9480785131454468</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9322578310966492</v>
+        <v>0.5783731341362</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8986670970916748</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.335931807756424</v>
+        <v>0.8805625438690186</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7611656785011292</v>
+        <v>0.9995137453079224</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7054360508918762</v>
+        <v>0.9874348044395447</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7821146249771118</v>
+        <v>0.9945900440216064</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5694783329963684</v>
+        <v>0.9768134355545044</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9728050827980042</v>
+        <v>0.9915870428085327</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6002123951911926</v>
+        <v>0.9829728603363037</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9521062970161438</v>
+        <v>0.9952996969223022</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7726161479949951</v>
+        <v>0.7825490236282349</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9489368200302124</v>
+        <v>0.9971631169319153</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.7245712876319885</v>
+        <v>0.9567751884460449</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.8424941301345825</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8064894676208496</v>
+        <v>0.9801015853881836</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.7930705547332764</v>
+        <v>0.9978525638580322</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9423640370368958</v>
+        <v>0.9578913450241089</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9414654970169067</v>
+        <v>0.9509666562080383</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.335931807756424</v>
+        <v>0.4350995123386383</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8088569045066833</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4902988970279694</v>
+        <v>0.9509666562080383</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7039498686790466</v>
+        <v>0.9115986227989197</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3494340181350708</v>
+        <v>0.997992992401123</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6027856469154358</v>
+        <v>0.9876230955123901</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.5249805450439453</v>
+        <v>0.9955325126647949</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9359937310218811</v>
+        <v>0.9876230955123901</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4599012434482574</v>
+        <v>0.9876230955123901</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7226195931434631</v>
+        <v>0.9955325126647949</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7956165671348572</v>
+        <v>0.9921707510948181</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7180287837982178</v>
+        <v>0.9749699234962463</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9315085411071777</v>
+        <v>0.9694455862045288</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9245551228523254</v>
+        <v>0.9366509914398193</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.675855815410614</v>
+        <v>0.9889442920684814</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3067196309566498</v>
+        <v>0.9458991289138794</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6012879610061646</v>
+        <v>0.9987009763717651</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8915266394615173</v>
+        <v>0.9976377487182617</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.7704623341560364</v>
+        <v>0.9774709939956665</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4357496201992035</v>
+        <v>0.9090786576271057</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.9919933080673218</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.4485235214233398</v>
+        <v>0.9978725910186768</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9359052777290344</v>
+        <v>0.9994702935218811</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5891721844673157</v>
+        <v>0.6486727595329285</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6809256076812744</v>
+        <v>0.9939677715301514</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8123903870582581</v>
+        <v>0.9373329877853394</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7028443813323975</v>
+        <v>0.9686610698699951</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6607886552810669</v>
+        <v>0.8856642842292786</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7140480875968933</v>
+        <v>0.9992402791976929</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.9988799691200256</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9455205202102661</v>
+        <v>0.9981579184532166</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.547258198261261</v>
+        <v>0.9529275894165039</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8225309252738953</v>
+        <v>0.5334956049919128</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7339003682136536</v>
+        <v>0.9982765913009644</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6565204262733459</v>
+        <v>0.7033528685569763</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9062910079956055</v>
+        <v>0.8369949460029602</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9330966472625732</v>
+        <v>0.9678966403007507</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.4381467998027802</v>
+        <v>0.7879007458686829</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8126704692840576</v>
+        <v>0.9989645481109619</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9588580727577209</v>
+        <v>0.9677478671073914</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8849948048591614</v>
+        <v>0.9686676859855652</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.881708025932312</v>
+        <v>0.6141811013221741</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5402398705482483</v>
+        <v>0.9924736022949219</v>
       </c>
     </row>
   </sheetData>
